--- a/biology/Zoologie/Camponotus_longiventris/Camponotus_longiventris.xlsx
+++ b/biology/Zoologie/Camponotus_longiventris/Camponotus_longiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camponotus longiventris est une espèce fossile de fourmis de la tribu des Camponotini (sous-famille des Formicinae).
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Camponotus longiventris est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype Am2 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections du muséum national d'histoire naturelle de Paris et du gypse d'Aix-en-Provence. Il a un cotype Am18 ♀ des mêmes provenances[2],[3].
-Confirmation du genre
-En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus[4],[1].
-Étymologie
-L'épithète spécifique longiventris signifie en latin « long ventre ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Camponotus longiventris est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -545,16 +553,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am2 ♂, de l'ère Cénozoïque, et de l'époque Stampien (33,9 à 28,1 Ma) vient des collections du muséum national d'histoire naturelle de Paris et du gypse d'Aix-en-Provence. Il a un cotype Am18 ♀ des mêmes provenances,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confirmation du genre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012 le myrmécologue anglais Barry Bolton confirme l'appartenance de cette espèce au genre Camponotus,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique longiventris signifie en latin « long ventre ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 1] : Pour l'holotype mâle A63 
-« Insecte de grande taille, de couleur brunâtre, peut-être noire à l'origine ; la tête et le thorax sont encore tachés de noir ; abdomen brun, portant des bandes noires sur les segments ; ailes transparentes. Tête large, à bords arrondis ; yeux grands de forme ovale, placés dans la partie postérieure de la tête ; clypeus arrondi à l'avant; mandibules fortes ; antennes coudées, le scape dépasse le bord postérieur de la tête. Cou net. Thorax ovale, large et solide ; pétiole nodiforme, un seul segment renflé. Abdomen volumineux, ovoïde, la plus grande largeur se trouve dans la moitié antérieure, six segments sur am2 ♂, cinq sur Am18 ♀. Pattes manquent. Ailes conservées sur Am2 ; longues, dépassent l'extrémité de l'abdomen ; stigma étroit, assez allongé ; pas de cellule discoïdale ; une cellule cubitale fermée ; nervure cubitale légèrement sinueuse. »[2].
-Dimensions
-La longueur totale est de 15 mm[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : Pour l'holotype mâle A63 
+« Insecte de grande taille, de couleur brunâtre, peut-être noire à l'origine ; la tête et le thorax sont encore tachés de noir ; abdomen brun, portant des bandes noires sur les segments ; ailes transparentes. Tête large, à bords arrondis ; yeux grands de forme ovale, placés dans la partie postérieure de la tête ; clypeus arrondi à l'avant; mandibules fortes ; antennes coudées, le scape dépasse le bord postérieur de la tête. Cou net. Thorax ovale, large et solide ; pétiole nodiforme, un seul segment renflé. Abdomen volumineux, ovoïde, la plus grande largeur se trouve dans la moitié antérieure, six segments sur am2 ♂, cinq sur Am18 ♀. Pattes manquent. Ailes conservées sur Am2 ; longues, dépassent l'extrémité de l'abdomen ; stigma étroit, assez allongé ; pas de cellule discoïdale ; une cellule cubitale fermée ; nervure cubitale légèrement sinueuse. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Camponotus_longiventris</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 15 mm.
 </t>
         </is>
       </c>
